--- a/static/Holding_Breakup/INOXLEISUR.xlsx
+++ b/static/Holding_Breakup/INOXLEISUR.xlsx
@@ -34,16 +34,16 @@
     <t>Number of Institutions Holding Shares</t>
   </si>
   <si>
-    <t>45.47%</t>
-  </si>
-  <si>
-    <t>39.05%</t>
-  </si>
-  <si>
-    <t>71.61%</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>46.94%</t>
+  </si>
+  <si>
+    <t>40.39%</t>
+  </si>
+  <si>
+    <t>76.12%</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
